--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{091DA7F4-222E-44CA-80B8-022C1BFD0E0D}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E560640A-7E6A-4C38-9AF9-DAE34B8F6D64}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Service</t>
   </si>
@@ -37,15 +37,38 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>ec2</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Traditional applications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,33 +378,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E560640A-7E6A-4C38-9AF9-DAE34B8F6D64}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5BB9760-0519-4685-9C5B-7CB46CA5BAFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Service</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Traditional applications</t>
+  </si>
+  <si>
+    <t>IAM Role</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,9 +398,10 @@
     <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +417,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5BB9760-0519-4685-9C5B-7CB46CA5BAFB}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A0AD553-1879-422D-B404-07745D506F7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Service</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>Updated</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Route53</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Route53 Hosted zones</t>
+  </si>
+  <si>
+    <t>Private, Public</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +93,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -104,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,58 +411,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A0AD553-1879-422D-B404-07745D506F7E}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D75CB2-6EB5-40ED-B97D-65E823F77B30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Service</t>
   </si>
@@ -76,6 +76,93 @@
   </si>
   <si>
     <t>Private, Public</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>Mutli AZ</t>
+  </si>
+  <si>
+    <t>Read Replicas</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Single AZ</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>MySql,MariaDB, Psql,Orcale,MsSql</t>
+  </si>
+  <si>
+    <t>Limititations</t>
+  </si>
+  <si>
+    <t>two AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZ</t>
+  </si>
+  <si>
+    <t>Enc at rest,transit</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Prodocution, HA</t>
+  </si>
+  <si>
+    <t>Multiple Reads</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>10 gibibytes (GiB) to 128 tebibytes (TiB)</t>
+  </si>
+  <si>
+    <t>Aurora serverless</t>
+  </si>
+  <si>
+    <t>IA,Unpredcitable wokrloads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora </t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Multi-AZ</t>
+  </si>
+  <si>
+    <t>15 read replicas</t>
+  </si>
+  <si>
+    <t>both read replicas and failover</t>
+  </si>
+  <si>
+    <t>Multi-master</t>
+  </si>
+  <si>
+    <t>Global Database</t>
+  </si>
+  <si>
+    <t>Multi-region</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>5 secondary db regions</t>
+  </si>
+  <si>
+    <t>Multi-region only for mysql</t>
   </si>
 </sst>
 </file>
@@ -127,10 +214,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,81 +504,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D75CB2-6EB5-40ED-B97D-65E823F77B30}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D53AAF3-89DA-4DA8-9944-7F8406CA9598}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Service</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Billing model</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Use cases</t>
   </si>
   <si>
@@ -163,6 +160,57 @@
   </si>
   <si>
     <t>Multi-region only for mysql</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>EFS Standard</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>1AZ</t>
+  </si>
+  <si>
+    <t>EFS 1A</t>
+  </si>
+  <si>
+    <t>EFS 1A IA</t>
+  </si>
+  <si>
+    <t>EFS Standard IA</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Elastic load balancing</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>CLB</t>
+  </si>
+  <si>
+    <t>NLB</t>
+  </si>
+  <si>
+    <t>GLB</t>
+  </si>
+  <si>
+    <t>timeout - 4000 seconds or 1 hour 6 minutes and 40 seconds</t>
+  </si>
+  <si>
+    <t>timeout - 360 seconds</t>
+  </si>
+  <si>
+    <t>Static IP, Low latency,Private Link</t>
+  </si>
+  <si>
+    <t>Listener Rules</t>
   </si>
 </sst>
 </file>
@@ -504,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,11 +565,11 @@
     <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -529,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -544,93 +592,99 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -638,121 +692,236 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D53AAF3-89DA-4DA8-9944-7F8406CA9598}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{201DF89F-9384-4852-9950-8305917A6549}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Service</t>
   </si>
@@ -211,13 +211,115 @@
   </si>
   <si>
     <t>Listener Rules</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>EventBridge</t>
+  </si>
+  <si>
+    <t>Step Functions</t>
+  </si>
+  <si>
+    <t>Cognito</t>
+  </si>
+  <si>
+    <t>15 minute, 1000 concurrent executions</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>Amazon Kinesis</t>
+  </si>
+  <si>
+    <t>Data streams</t>
+  </si>
+  <si>
+    <t>Firehose</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Video stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloudWatch, </t>
+  </si>
+  <si>
+    <t>Amount of reqs, data out and cached data</t>
+  </si>
+  <si>
+    <t>Amazon CloudWatch and AWS CloudTrail</t>
+  </si>
+  <si>
+    <t>SOC, PCI, and FedRAMP,HIPPA</t>
+  </si>
+  <si>
+    <t>total number of state transitions</t>
+  </si>
+  <si>
+    <t>Orchestrate workflows</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>300 API calls per second,3,000 transactions/sec/batch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +339,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,21 +370,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -287,6 +451,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00F0CF7-7665-44D7-89A0-13CB06B5B977}" name="Table1" displayName="Table1" ref="A100:L101" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A100:L101" xr:uid="{4B5DDF9D-E16F-4612-8886-B13BDC650485}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{E2A443CE-E31B-41AE-A571-6B067126CB7B}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B0E7A882-9FCB-4EBA-A71F-6E9A4D6EEDCD}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{C419282F-2432-4057-B9EF-35B94726C79B}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{DCFD9C9B-6AB5-4DE4-9500-4348C22D2332}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{6BF75A91-2C28-4A65-8193-0CE1D7D6AA31}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{672B2B45-6664-4D67-9AFC-3406A8A8C71C}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{58B58DC9-2A82-4D75-A6C2-F3D3A0744031}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{96F761ED-A3D9-46CA-90D0-203A36AA2B82}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{0EDA552E-F488-4064-A4B7-10DEB3EB6DCB}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{24F1D3B0-2322-43D9-A20F-94F6766B1870}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{3FBBF648-3772-4478-8F7B-2A67A25F30C2}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{02ACF09D-196B-489E-8FEB-58993E3D6231}" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L33" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L33" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0192773F-3D67-41F7-AAB6-B8E1E8A9FC6B}" name="Service" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BE7C882A-5C0F-41D3-A90F-B8807C2E3D4E}" name="Features"/>
+    <tableColumn id="3" xr3:uid="{8EDB90A1-EA99-4B95-91F8-512358A3496B}" name="Types"/>
+    <tableColumn id="4" xr3:uid="{7AC6B4F9-08E8-4866-9E36-3591CAC3DECA}" name="Scope"/>
+    <tableColumn id="5" xr3:uid="{F87C35EE-DA07-4384-8DB0-258F9F368FFD}" name="Reselliency"/>
+    <tableColumn id="6" xr3:uid="{F5288696-7B39-4945-AED3-82494FA7D909}" name="Billing model"/>
+    <tableColumn id="7" xr3:uid="{572A9A64-2905-42D1-8B12-95D7F3DEE8F1}" name="Use cases"/>
+    <tableColumn id="8" xr3:uid="{2D441490-1913-452C-9A14-7009061D586B}" name="IAM Role"/>
+    <tableColumn id="9" xr3:uid="{9C3B828C-780C-4C72-B89F-FC0F71437BA0}" name="Updated"/>
+    <tableColumn id="10" xr3:uid="{472E031F-CDB9-435D-9C9A-AA7E165F8D34}" name="Security" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{32D4BB3E-06C0-41A4-AFD1-A82827EE7472}" name="Limititations"/>
+    <tableColumn id="12" xr3:uid="{FA757A8C-F68A-4A9D-9246-B6A32976C80F}" name="Logging"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,66 +758,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -628,7 +837,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -646,12 +855,12 @@
       <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
@@ -671,7 +880,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
@@ -691,7 +900,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -708,7 +917,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
@@ -725,7 +934,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -748,7 +957,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -765,7 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -785,12 +994,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
@@ -804,7 +1013,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
@@ -818,7 +1027,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
@@ -832,7 +1041,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
@@ -840,7 +1049,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -853,8 +1062,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -876,7 +1085,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -890,7 +1102,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
@@ -907,7 +1122,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -924,8 +1142,232 @@
         <v>59</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{201DF89F-9384-4852-9950-8305917A6549}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A694D560-02EE-468D-A6E9-298DAE87426D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>Service</t>
   </si>
@@ -313,6 +313,31 @@
   </si>
   <si>
     <t>300 API calls per second,3,000 transactions/sec/batch</t>
+  </si>
+  <si>
+    <t>Amazon CloudFront</t>
+  </si>
+  <si>
+    <t>Data Transfer Out, HTTP/HTTPS Requests
+Invalidation Requests,</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Private access to AWS public services</t>
   </si>
 </sst>
 </file>
@@ -392,15 +417,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -438,7 +455,15 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +482,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00F0CF7-7665-44D7-89A0-13CB06B5B977}" name="Table1" displayName="Table1" ref="A100:L101" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A100:L101" xr:uid="{4B5DDF9D-E16F-4612-8886-B13BDC650485}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E2A443CE-E31B-41AE-A571-6B067126CB7B}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E2A443CE-E31B-41AE-A571-6B067126CB7B}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B0E7A882-9FCB-4EBA-A71F-6E9A4D6EEDCD}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{C419282F-2432-4057-B9EF-35B94726C79B}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{DCFD9C9B-6AB5-4DE4-9500-4348C22D2332}" name="Column4"/>
@@ -475,10 +500,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L33" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:L33" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L36" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L36" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0192773F-3D67-41F7-AAB6-B8E1E8A9FC6B}" name="Service" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0192773F-3D67-41F7-AAB6-B8E1E8A9FC6B}" name="Service" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BE7C882A-5C0F-41D3-A90F-B8807C2E3D4E}" name="Features"/>
     <tableColumn id="3" xr3:uid="{8EDB90A1-EA99-4B95-91F8-512358A3496B}" name="Types"/>
     <tableColumn id="4" xr3:uid="{7AC6B4F9-08E8-4866-9E36-3591CAC3DECA}" name="Scope"/>
@@ -487,7 +512,7 @@
     <tableColumn id="7" xr3:uid="{572A9A64-2905-42D1-8B12-95D7F3DEE8F1}" name="Use cases"/>
     <tableColumn id="8" xr3:uid="{2D441490-1913-452C-9A14-7009061D586B}" name="IAM Role"/>
     <tableColumn id="9" xr3:uid="{9C3B828C-780C-4C72-B89F-FC0F71437BA0}" name="Updated"/>
-    <tableColumn id="10" xr3:uid="{472E031F-CDB9-435D-9C9A-AA7E165F8D34}" name="Security" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{472E031F-CDB9-435D-9C9A-AA7E165F8D34}" name="Security" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{32D4BB3E-06C0-41A4-AFD1-A82827EE7472}" name="Limititations"/>
     <tableColumn id="12" xr3:uid="{FA757A8C-F68A-4A9D-9246-B6A32976C80F}" name="Logging"/>
   </tableColumns>
@@ -760,20 +785,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="40.1796875" style="1" customWidth="1"/>
@@ -1304,9 +1329,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A694D560-02EE-468D-A6E9-298DAE87426D}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3644CF81-3684-4389-BBD5-D27C6FA54131}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
   <si>
     <t>Service</t>
   </si>
@@ -338,6 +338,276 @@
   </si>
   <si>
     <t>Private access to AWS public services</t>
+  </si>
+  <si>
+    <t>Private access to AWS s3 and DynamoDB</t>
+  </si>
+  <si>
+    <t>Site-to-Site VPN</t>
+  </si>
+  <si>
+    <t>HA (manually)</t>
+  </si>
+  <si>
+    <t>Speed 1.25 Gbps, Latency - public internet</t>
+  </si>
+  <si>
+    <t>Storage Gateway</t>
+  </si>
+  <si>
+    <t>TAPE Gateway (VTL)</t>
+  </si>
+  <si>
+    <t>File mode</t>
+  </si>
+  <si>
+    <t>Volume mode</t>
+  </si>
+  <si>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>Cached</t>
+  </si>
+  <si>
+    <t>NFS or SMB</t>
+  </si>
+  <si>
+    <t>Backup Storage (iSCSI)</t>
+  </si>
+  <si>
+    <t>AWS Snow Family</t>
+  </si>
+  <si>
+    <t>Snow Ball</t>
+  </si>
+  <si>
+    <t>50 to 80 TB . Recmd - 10TB - 10 PB. Only storage</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>Storage Optmised</t>
+  </si>
+  <si>
+    <t>Compute optimised</t>
+  </si>
+  <si>
+    <t>Compute with GPU</t>
+  </si>
+  <si>
+    <t>Snow Mobile</t>
+  </si>
+  <si>
+    <t>AWS Directory Service</t>
+  </si>
+  <si>
+    <t>SimpleAD</t>
+  </si>
+  <si>
+    <t>5000 users</t>
+  </si>
+  <si>
+    <t>Managed Microsoft AD</t>
+  </si>
+  <si>
+    <t>AD connector</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Connects with On prem</t>
+  </si>
+  <si>
+    <t>Within AWS</t>
+  </si>
+  <si>
+    <t>AWS Data Sync</t>
+  </si>
+  <si>
+    <t>Amazon FSX</t>
+  </si>
+  <si>
+    <t>Fsx for windows</t>
+  </si>
+  <si>
+    <t>Fsx for NetApp</t>
+  </si>
+  <si>
+    <t>Fsx for Lusture</t>
+  </si>
+  <si>
+    <t>Single or Multi-AZ</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>persistant</t>
+  </si>
+  <si>
+    <t>ML, Big data, Modelling. Pure performance</t>
+  </si>
+  <si>
+    <t>Self healing , HA within AZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO RES</t>
+  </si>
+  <si>
+    <t>AWS direct connect</t>
+  </si>
+  <si>
+    <t>1, 2, 5 and 10 Gbps and 100 Gbps</t>
+  </si>
+  <si>
+    <t>No of ports in use per hour.Data trasfer oout and IN</t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway</t>
+  </si>
+  <si>
+    <t>Billed hourly for storage and backup</t>
+  </si>
+  <si>
+    <t>Cannot scale automatically</t>
+  </si>
+  <si>
+    <t>Backup to S3</t>
+  </si>
+  <si>
+    <t>backup to S3 and cache data locally</t>
+  </si>
+  <si>
+    <t>50 TB or 80 TB</t>
+  </si>
+  <si>
+    <t>10 PB - 100 PB</t>
+  </si>
+  <si>
+    <t>AWS CLOUD HSM</t>
+  </si>
+  <si>
+    <t>AWS WAF and Shield</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>Sheild</t>
+  </si>
+  <si>
+    <t>Sheild Advanced</t>
+  </si>
+  <si>
+    <t>Layer4,5 DDOS attack</t>
+  </si>
+  <si>
+    <t>Layer 7. SQL Injection,Rate awarness</t>
+  </si>
+  <si>
+    <t>AWS Secret manager</t>
+  </si>
+  <si>
+    <t>KMS at rest, TLS in trnasit,HIPAA,PCI,ISO</t>
+  </si>
+  <si>
+    <t>NO of secrets stored and API calls made to retireve</t>
+  </si>
+  <si>
+    <t>no of webACL, no of rules, no of requests</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>AWS Macie</t>
+  </si>
+  <si>
+    <t>AWS Config</t>
+  </si>
+  <si>
+    <t>Scan PII data, Api keys , secrets</t>
+  </si>
+  <si>
+    <t>Amount of content classified. Extended Data retention</t>
+  </si>
+  <si>
+    <t>Mumber of CI items</t>
+  </si>
+  <si>
+    <t>SNS, CLoudWatch or Cloudtrail</t>
+  </si>
+  <si>
+    <t>AWS Inspector</t>
+  </si>
+  <si>
+    <t>AWS GuardDuty</t>
+  </si>
+  <si>
+    <t>AWS SSM</t>
+  </si>
+  <si>
+    <t>AWS Glue</t>
+  </si>
+  <si>
+    <t>AWS EKS</t>
+  </si>
+  <si>
+    <t>AWS EMR</t>
+  </si>
+  <si>
+    <t>No of ec2 instances</t>
+  </si>
+  <si>
+    <t>Security state of ec2 targets only</t>
+  </si>
+  <si>
+    <t>VPC flowlogs,cloudtrail,DNS queires</t>
+  </si>
+  <si>
+    <t>Volume of cloudtrail,flow logs an DNS log data</t>
+  </si>
+  <si>
+    <t>AWS DynamoDB</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <t>Provisioned</t>
+  </si>
+  <si>
+    <t>Eventually</t>
+  </si>
+  <si>
+    <t>Strongly</t>
+  </si>
+  <si>
+    <t>Streams and Trriggeres</t>
+  </si>
+  <si>
+    <t>AMAZON ATHENA</t>
+  </si>
+  <si>
+    <t>Amazon Redshift</t>
+  </si>
+  <si>
+    <t>Global Tables</t>
+  </si>
+  <si>
+    <t>Globally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regoin </t>
+  </si>
+  <si>
+    <t>Regoin</t>
   </si>
 </sst>
 </file>
@@ -479,8 +749,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00F0CF7-7665-44D7-89A0-13CB06B5B977}" name="Table1" displayName="Table1" ref="A100:L101" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A100:L101" xr:uid="{4B5DDF9D-E16F-4612-8886-B13BDC650485}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00F0CF7-7665-44D7-89A0-13CB06B5B977}" name="Table1" displayName="Table1" ref="A101:L102" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A101:L102" xr:uid="{4B5DDF9D-E16F-4612-8886-B13BDC650485}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{E2A443CE-E31B-41AE-A571-6B067126CB7B}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B0E7A882-9FCB-4EBA-A71F-6E9A4D6EEDCD}" name="Column2"/>
@@ -500,8 +770,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L36" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:L36" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L78" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:L78" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0192773F-3D67-41F7-AAB6-B8E1E8A9FC6B}" name="Service" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BE7C882A-5C0F-41D3-A90F-B8807C2E3D4E}" name="Features"/>
@@ -783,24 +1053,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A74" sqref="A74:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.7265625" bestFit="1" customWidth="1"/>
@@ -1329,12 +1599,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>96</v>
       </c>
@@ -1342,7 +1612,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>98</v>
       </c>
@@ -1362,7 +1632,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
       <c r="C36" t="s">
         <v>101</v>
       </c>
@@ -1372,58 +1648,466 @@
       <c r="E36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+      <c r="K47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="L61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="8"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/AWS-services.xlsx
+++ b/AWS-services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verifone365-my.sharepoint.com/personal/manishu1_verifone_com/Documents/Documents/GitHub/aws-sa-associate-saac02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3644CF81-3684-4389-BBD5-D27C6FA54131}"/>
+  <xr:revisionPtr revIDLastSave="912" documentId="11_F25DC773A252ABDACC104865115A432E5BDE58ED" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02AA5CC6-8C3C-49F4-8EB2-67790EDF3F7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="409">
   <si>
     <t>Service</t>
   </si>
@@ -274,42 +274,6 @@
   </si>
   <si>
     <t>Orchestrate workflows</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
   </si>
   <si>
     <t>300 API calls per second,3,000 transactions/sec/batch</t>
@@ -343,15 +307,6 @@
     <t>Private access to AWS s3 and DynamoDB</t>
   </si>
   <si>
-    <t>Site-to-Site VPN</t>
-  </si>
-  <si>
-    <t>HA (manually)</t>
-  </si>
-  <si>
-    <t>Speed 1.25 Gbps, Latency - public internet</t>
-  </si>
-  <si>
     <t>Storage Gateway</t>
   </si>
   <si>
@@ -608,30 +563,704 @@
   </si>
   <si>
     <t>Regoin</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Identity Based policy</t>
+  </si>
+  <si>
+    <t>Inline policy</t>
+  </si>
+  <si>
+    <t>Managed Policy</t>
+  </si>
+  <si>
+    <t>Resource based policy</t>
+  </si>
+  <si>
+    <t>Trust policy</t>
+  </si>
+  <si>
+    <t>Permission policy</t>
+  </si>
+  <si>
+    <t>Directly to the user</t>
+  </si>
+  <si>
+    <t>To a group of users</t>
+  </si>
+  <si>
+    <t>Attached to a group(which)</t>
+  </si>
+  <si>
+    <t>Attached to a resources (what)</t>
+  </si>
+  <si>
+    <t>Amazon CloudWatch</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Per dashboard per month</t>
+  </si>
+  <si>
+    <t>No of metrics, No fo API calls, Data transfer out</t>
+  </si>
+  <si>
+    <t>Amazon CloudTrail</t>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t>Events history</t>
+  </si>
+  <si>
+    <t>All region, one region, orgnisation</t>
+  </si>
+  <si>
+    <t>mgmt, data and insight</t>
+  </si>
+  <si>
+    <t>Amazon s3</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>std IA</t>
+  </si>
+  <si>
+    <t>one-zone IA</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Glacier Deep archive</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>1 az</t>
+  </si>
+  <si>
+    <t>30 days</t>
+  </si>
+  <si>
+    <t>90 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
+  </si>
+  <si>
+    <t>storage, requests</t>
+  </si>
+  <si>
+    <t>Storage, retieval,requests</t>
+  </si>
+  <si>
+    <t>Amazon KMS</t>
+  </si>
+  <si>
+    <t>For every key and new key after rotation</t>
+  </si>
+  <si>
+    <t>IGW</t>
+  </si>
+  <si>
+    <t>EO - IGW</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>Elastic IP</t>
+  </si>
+  <si>
+    <t>Nat gateways</t>
+  </si>
+  <si>
+    <t>NACL</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Transit Gatways</t>
+  </si>
+  <si>
+    <t>Subnets</t>
+  </si>
+  <si>
+    <t>Route tables</t>
+  </si>
+  <si>
+    <t>Private, Public, VPN only</t>
+  </si>
+  <si>
+    <t>subnet in AZ</t>
+  </si>
+  <si>
+    <t>Flow logs</t>
+  </si>
+  <si>
+    <t>comms for outsode the subnet</t>
+  </si>
+  <si>
+    <t>IPV6 outbound Internet only</t>
+  </si>
+  <si>
+    <t>4 DHCP servers by default in a VPC</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>static public IP</t>
+  </si>
+  <si>
+    <t>Regoion</t>
+  </si>
+  <si>
+    <t>Assign IP address to devices</t>
+  </si>
+  <si>
+    <t>IPV4 outbound internet access</t>
+  </si>
+  <si>
+    <t>stupdily high(duration, amount data nd number NGW</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>Explicit allow and Deny</t>
+  </si>
+  <si>
+    <t>Explicit allow and implicit deny</t>
+  </si>
+  <si>
+    <t>monitoring traffic</t>
+  </si>
+  <si>
+    <t>VPC,subnet,interface</t>
+  </si>
+  <si>
+    <t>Public internet</t>
+  </si>
+  <si>
+    <t>manually HA</t>
+  </si>
+  <si>
+    <t>1.25 Gbps</t>
+  </si>
+  <si>
+    <t>Peering</t>
+  </si>
+  <si>
+    <t>Non-transitive</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Instance Types</t>
+  </si>
+  <si>
+    <t>Pricing model</t>
+  </si>
+  <si>
+    <t>Paclement grops</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>On demand</t>
+  </si>
+  <si>
+    <t>Spot instacnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved </t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Dedicated</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>Network Interfaces</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>Launch templates</t>
+  </si>
+  <si>
+    <t>pay by the second</t>
+  </si>
+  <si>
+    <t>pay for a minimum of 1 to 3 years. Standard and convertible</t>
+  </si>
+  <si>
+    <t>90% off comapred to on-demand</t>
+  </si>
+  <si>
+    <t>spot blocks, spot fleet,spot instance pool</t>
+  </si>
+  <si>
+    <t>within same zone or rack</t>
+  </si>
+  <si>
+    <t>spread distinct across rack in az</t>
+  </si>
+  <si>
+    <t>7 per AZ</t>
+  </si>
+  <si>
+    <t>partiion in distinct rack in az</t>
+  </si>
+  <si>
+    <t>entire host</t>
+  </si>
+  <si>
+    <t>on demand or reserved</t>
+  </si>
+  <si>
+    <t>backed by EBS</t>
+  </si>
+  <si>
+    <t>backed by instance store</t>
+  </si>
+  <si>
+    <t>no modifications</t>
+  </si>
+  <si>
+    <t>Enhanced Networking</t>
+  </si>
+  <si>
+    <t>Elastic fabirc adaptor</t>
+  </si>
+  <si>
+    <t>ML, HPC</t>
+  </si>
+  <si>
+    <t>Host NIC aware of virtualization</t>
+  </si>
+  <si>
+    <t>HDD (st-1,sc-1)</t>
+  </si>
+  <si>
+    <t>EBS snapshots</t>
+  </si>
+  <si>
+    <t>500 IOPS, 500 MB/s</t>
+  </si>
+  <si>
+    <t>16,000 IOPS, 1000 MB/s</t>
+  </si>
+  <si>
+    <t>General (GP2,GP3) (ssd)</t>
+  </si>
+  <si>
+    <t>Provisioned (io1,io2,io-BE) (ssd)</t>
+  </si>
+  <si>
+    <t>small random I/o,transactional worklaods,boot</t>
+  </si>
+  <si>
+    <t>large streaming work, large sequentials</t>
+  </si>
+  <si>
+    <t>Gb/mo</t>
+  </si>
+  <si>
+    <t>Gb/mo, IOPS/mo</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>on EC2</t>
+  </si>
+  <si>
+    <t>fargate</t>
+  </si>
+  <si>
+    <t>Reigional</t>
+  </si>
+  <si>
+    <t>vCPU and memory reources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for EC2 instance and EBS volumes </t>
+  </si>
+  <si>
+    <t>Price concisus</t>
+  </si>
+  <si>
+    <t>mgmt conscius</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>Health checks</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Routing Policies</t>
+  </si>
+  <si>
+    <t>Failover</t>
+  </si>
+  <si>
+    <t>Mutivalue</t>
+  </si>
+  <si>
+    <t>Wighted</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Geo location</t>
+  </si>
+  <si>
+    <t>Geo proximity</t>
+  </si>
+  <si>
+    <t>one server</t>
+  </si>
+  <si>
+    <t>active passive</t>
+  </si>
+  <si>
+    <t>8 healthy reocrds or more</t>
+  </si>
+  <si>
+    <t>Priority based routing</t>
+  </si>
+  <si>
+    <t>Best low latency</t>
+  </si>
+  <si>
+    <t>Location based but not on latnecy. Restircted content</t>
+  </si>
+  <si>
+    <t>Closet location (distance) not latency</t>
+  </si>
+  <si>
+    <t>Public oly</t>
+  </si>
+  <si>
+    <t>Public only</t>
+  </si>
+  <si>
+    <t>Private and public</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>CNAME</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>PTR</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>SPF</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>Name to name</t>
+  </si>
+  <si>
+    <t>IPv4. name to number</t>
+  </si>
+  <si>
+    <t>Mail server</t>
+  </si>
+  <si>
+    <t>Name server records</t>
+  </si>
+  <si>
+    <t>same format as domain name</t>
+  </si>
+  <si>
+    <t>Provides infor about the domain</t>
+  </si>
+  <si>
+    <t>Authenticy of the domain</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Free of cost. CNAMe A type</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Route54</t>
+  </si>
+  <si>
+    <t>DNSSEC</t>
+  </si>
+  <si>
+    <t>Protection against DNS spoofing</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Datasync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup </t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>General, Max IO</t>
+  </si>
+  <si>
+    <t>Burst, Provisioned</t>
+  </si>
+  <si>
+    <t>SFTP, FTP</t>
+  </si>
+  <si>
+    <t>Backup  to s3</t>
+  </si>
+  <si>
+    <t>Migrate data from on prem to EFS</t>
+  </si>
+  <si>
+    <t>STD , STD IA , OneZ, oneZ -IA</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>Single part</t>
+  </si>
+  <si>
+    <t>Multi part</t>
+  </si>
+  <si>
+    <t>Transfer accleration</t>
+  </si>
+  <si>
+    <t>Minumin sixe of 100 MB</t>
+  </si>
+  <si>
+    <t>CMK ,DEK</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>SSE - S3 managed keys</t>
+  </si>
+  <si>
+    <t>SSE - Customer managed keys</t>
+  </si>
+  <si>
+    <t>SSE - KMS</t>
+  </si>
+  <si>
+    <t>CSE - Client side encryption</t>
+  </si>
+  <si>
+    <t>Site to Site VPN</t>
+  </si>
+  <si>
+    <t>VPGW, CGW</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>64000,256,000 IOPS, 1000 MB/s</t>
+  </si>
+  <si>
+    <t>Path, host,lambda finctions</t>
+  </si>
+  <si>
+    <t>Static IP</t>
+  </si>
+  <si>
+    <t>Firewall softwares</t>
+  </si>
+  <si>
+    <t>Autoscaling groups</t>
+  </si>
+  <si>
+    <t>AMI, user-data, has versions</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Dynamic  - simple</t>
+  </si>
+  <si>
+    <t>Dynamic - stepped</t>
+  </si>
+  <si>
+    <t>Dynamic Target trackig</t>
+  </si>
+  <si>
+    <t>Time based</t>
+  </si>
+  <si>
+    <t>Based on metric</t>
+  </si>
+  <si>
+    <t>Based on metric but granularity</t>
+  </si>
+  <si>
+    <t>Constantly maintain reosurces</t>
+  </si>
+  <si>
+    <t>10 GBPS</t>
+  </si>
+  <si>
+    <t>Snow cone</t>
+  </si>
+  <si>
+    <t>8 TB</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Keys_ONLY</t>
+  </si>
+  <si>
+    <t>NEW_ONLY</t>
+  </si>
+  <si>
+    <t>ODL_ONLY</t>
+  </si>
+  <si>
+    <t>NEW_OLD</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>Indexes</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Indexs</t>
+  </si>
+  <si>
+    <t>diff SK, Strong consistency</t>
+  </si>
+  <si>
+    <t>diff PK, SK. Eventually consistent</t>
+  </si>
+  <si>
+    <t>Need to create along with the table</t>
+  </si>
+  <si>
+    <t>GLobal</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>cache in micro seconds. Miss in mills</t>
+  </si>
+  <si>
+    <t>Provisioned, Reserved</t>
+  </si>
+  <si>
+    <t>Concurrency</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Polling</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Short</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -665,78 +1294,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{CDD4428A-04AD-4FC7-90C6-ADD9617A9C7F}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -749,42 +1316,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00F0CF7-7665-44D7-89A0-13CB06B5B977}" name="Table1" displayName="Table1" ref="A101:L102" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A101:L102" xr:uid="{4B5DDF9D-E16F-4612-8886-B13BDC650485}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{888CFFD3-AAC4-4A3E-99D2-F088D4C236C6}" name="Table4" displayName="Table4" ref="A1:L174" totalsRowShown="0">
+  <autoFilter ref="A1:L174" xr:uid="{F69D0EBC-6814-498E-ADC6-A3AAA1305F0F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Amazon Kinesis"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E2A443CE-E31B-41AE-A571-6B067126CB7B}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B0E7A882-9FCB-4EBA-A71F-6E9A4D6EEDCD}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{C419282F-2432-4057-B9EF-35B94726C79B}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{DCFD9C9B-6AB5-4DE4-9500-4348C22D2332}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{6BF75A91-2C28-4A65-8193-0CE1D7D6AA31}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{672B2B45-6664-4D67-9AFC-3406A8A8C71C}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{58B58DC9-2A82-4D75-A6C2-F3D3A0744031}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{96F761ED-A3D9-46CA-90D0-203A36AA2B82}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{0EDA552E-F488-4064-A4B7-10DEB3EB6DCB}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{24F1D3B0-2322-43D9-A20F-94F6766B1870}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{3FBBF648-3772-4478-8F7B-2A67A25F30C2}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{02ACF09D-196B-489E-8FEB-58993E3D6231}" name="Column12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EE805EE-467D-4E89-A0CB-DE6B476D2333}" name="Table2" displayName="Table2" ref="A1:L78" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:L78" xr:uid="{A5DD8B7E-0FAE-459E-9D6C-A786C0859A40}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0192773F-3D67-41F7-AAB6-B8E1E8A9FC6B}" name="Service" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BE7C882A-5C0F-41D3-A90F-B8807C2E3D4E}" name="Features"/>
-    <tableColumn id="3" xr3:uid="{8EDB90A1-EA99-4B95-91F8-512358A3496B}" name="Types"/>
-    <tableColumn id="4" xr3:uid="{7AC6B4F9-08E8-4866-9E36-3591CAC3DECA}" name="Scope"/>
-    <tableColumn id="5" xr3:uid="{F87C35EE-DA07-4384-8DB0-258F9F368FFD}" name="Reselliency"/>
-    <tableColumn id="6" xr3:uid="{F5288696-7B39-4945-AED3-82494FA7D909}" name="Billing model"/>
-    <tableColumn id="7" xr3:uid="{572A9A64-2905-42D1-8B12-95D7F3DEE8F1}" name="Use cases"/>
-    <tableColumn id="8" xr3:uid="{2D441490-1913-452C-9A14-7009061D586B}" name="IAM Role"/>
-    <tableColumn id="9" xr3:uid="{9C3B828C-780C-4C72-B89F-FC0F71437BA0}" name="Updated"/>
-    <tableColumn id="10" xr3:uid="{472E031F-CDB9-435D-9C9A-AA7E165F8D34}" name="Security" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{32D4BB3E-06C0-41A4-AFD1-A82827EE7472}" name="Limititations"/>
-    <tableColumn id="12" xr3:uid="{FA757A8C-F68A-4A9D-9246-B6A32976C80F}" name="Logging"/>
+    <tableColumn id="1" xr3:uid="{B159B5DB-0590-4410-B18E-488B5F7B2D38}" name="Service"/>
+    <tableColumn id="2" xr3:uid="{47AB7E29-C4B9-4EAC-8514-31D3C9449429}" name="Features"/>
+    <tableColumn id="3" xr3:uid="{7D45E7F7-2813-42BA-B3F1-0984FC1954D7}" name="Types"/>
+    <tableColumn id="4" xr3:uid="{8C68248C-042C-48AE-8A76-5487EAB20AB9}" name="Scope"/>
+    <tableColumn id="5" xr3:uid="{6AF023C3-C0AF-4454-91E3-CE27351712F5}" name="Reselliency"/>
+    <tableColumn id="6" xr3:uid="{6F57CE39-EEDA-4000-A185-B0ACA896A153}" name="Billing model"/>
+    <tableColumn id="7" xr3:uid="{30914E7D-7DAB-4747-BD7F-C49CDC6ADC7D}" name="Use cases"/>
+    <tableColumn id="8" xr3:uid="{552A5AD8-76C8-4F9F-B27B-34E8377B6BDE}" name="IAM Role"/>
+    <tableColumn id="9" xr3:uid="{BCC4C379-119A-4BE5-A644-845E15F1BB03}" name="Updated"/>
+    <tableColumn id="10" xr3:uid="{0FF1C51F-D2FB-4FAC-9A68-A647CBC7515F}" name="Security"/>
+    <tableColumn id="11" xr3:uid="{DA18DA72-505E-401F-B4F5-5D1BEEDE7F8E}" name="Limititations"/>
+    <tableColumn id="12" xr3:uid="{D506489C-420B-4C71-AC6D-F227E23B67FA}" name="Logging"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,190 +1605,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A74" sqref="A74:A75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1796875" customWidth="1"/>
     <col min="11" max="11" width="51.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1244,61 +1801,52 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1307,65 +1855,77 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
+      <c r="F16" t="s">
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>47</v>
@@ -1373,22 +1933,19 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="G17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
@@ -1396,16 +1953,19 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -1413,19 +1973,22 @@
       <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
+      <c r="G19" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>403</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1434,12 +1997,18 @@
         <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -1448,18 +2017,18 @@
         <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
@@ -1467,655 +2036,2023 @@
       <c r="E22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
       </c>
       <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>384</v>
+      </c>
+      <c r="G40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>155</v>
+      </c>
+      <c r="L60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
         <v>47</v>
       </c>
-      <c r="G35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>386</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s">
+        <v>392</v>
+      </c>
+      <c r="C74" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>392</v>
+      </c>
+      <c r="C75" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" t="s">
+        <v>397</v>
+      </c>
+      <c r="K76" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>401</v>
+      </c>
+      <c r="G78" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="G89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" t="s">
+        <v>212</v>
+      </c>
+      <c r="J95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" t="s">
+        <v>212</v>
+      </c>
+      <c r="J96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>354</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" t="s">
+        <v>47</v>
+      </c>
+      <c r="J98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>342</v>
+      </c>
+      <c r="C100" t="s">
+        <v>356</v>
+      </c>
+      <c r="G100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" t="s">
+        <v>360</v>
+      </c>
+      <c r="C103" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
+        <v>360</v>
+      </c>
+      <c r="C104" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" t="s">
+        <v>359</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+      <c r="G106" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
         <v>6</v>
       </c>
-      <c r="G36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-      <c r="K37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="G107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
         <v>6</v>
       </c>
-      <c r="G55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" t="s">
-        <v>145</v>
-      </c>
-      <c r="K56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" t="s">
-        <v>170</v>
-      </c>
-      <c r="L61" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" t="s">
-        <v>178</v>
-      </c>
-      <c r="G65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E108" t="s">
+        <v>227</v>
+      </c>
+      <c r="J108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" t="s">
+        <v>234</v>
+      </c>
+      <c r="G112" t="s">
+        <v>235</v>
+      </c>
+      <c r="K112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>237</v>
+      </c>
+      <c r="G114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" t="s">
+        <v>238</v>
+      </c>
+      <c r="G115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="D116" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" t="s">
+        <v>89</v>
+      </c>
+      <c r="G116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+      <c r="K117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" t="s">
+        <v>248</v>
+      </c>
+      <c r="E118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" t="s">
+        <v>242</v>
+      </c>
+      <c r="G119" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>365</v>
+      </c>
+      <c r="C120" t="s">
+        <v>366</v>
+      </c>
+      <c r="D120" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" t="s">
+        <v>246</v>
+      </c>
+      <c r="K121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
+        <v>254</v>
+      </c>
+      <c r="F124" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" t="s">
+        <v>268</v>
+      </c>
+      <c r="K127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+      <c r="D128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D129" t="s">
+        <v>271</v>
+      </c>
+      <c r="F129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" t="s">
+        <v>206</v>
+      </c>
+      <c r="G130" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" t="s">
+        <v>277</v>
+      </c>
+      <c r="G132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s">
+        <v>276</v>
+      </c>
+      <c r="G133" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" t="s">
+        <v>284</v>
+      </c>
+      <c r="K134" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>261</v>
+      </c>
+      <c r="C135" t="s">
+        <v>285</v>
+      </c>
+      <c r="F135" t="s">
+        <v>288</v>
+      </c>
+      <c r="G135" t="s">
+        <v>286</v>
+      </c>
+      <c r="K135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+      <c r="C136" t="s">
+        <v>280</v>
+      </c>
+      <c r="F136" t="s">
+        <v>289</v>
+      </c>
+      <c r="G136" t="s">
+        <v>286</v>
+      </c>
+      <c r="K136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>281</v>
+      </c>
+      <c r="G137" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="G138" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>372</v>
+      </c>
+      <c r="C139" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" t="s">
+        <v>375</v>
+      </c>
+      <c r="G140" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" t="s">
+        <v>376</v>
+      </c>
+      <c r="G141" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" t="s">
+        <v>377</v>
+      </c>
+      <c r="G142" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" t="s">
+        <v>291</v>
+      </c>
+      <c r="D144" t="s">
+        <v>293</v>
+      </c>
+      <c r="E144" t="s">
         <v>47</v>
       </c>
-      <c r="F66" t="s">
-        <v>181</v>
-      </c>
-      <c r="G66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" t="s">
-        <v>183</v>
-      </c>
-      <c r="E71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" t="s">
-        <v>186</v>
-      </c>
-      <c r="E74" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" t="s">
-        <v>190</v>
-      </c>
-      <c r="E75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="8"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="F144" t="s">
+        <v>295</v>
+      </c>
+      <c r="G144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="D145" t="s">
+        <v>47</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" t="s">
+        <v>294</v>
+      </c>
+      <c r="G145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>318</v>
+      </c>
+      <c r="G147" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s">
+        <v>319</v>
+      </c>
+      <c r="G148" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>320</v>
+      </c>
+      <c r="G149" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s">
+        <v>321</v>
+      </c>
+      <c r="G150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" t="s">
+        <v>322</v>
+      </c>
+      <c r="G151" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s">
+        <v>323</v>
+      </c>
+      <c r="G152" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" t="s">
+        <v>324</v>
+      </c>
+      <c r="G153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>298</v>
+      </c>
+      <c r="C154" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" t="s">
+        <v>327</v>
+      </c>
+      <c r="G156" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" t="s">
+        <v>336</v>
+      </c>
+      <c r="G157" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>301</v>
+      </c>
+      <c r="C158" t="s">
+        <v>300</v>
+      </c>
+      <c r="D158" t="s">
+        <v>317</v>
+      </c>
+      <c r="G158" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" t="s">
+        <v>302</v>
+      </c>
+      <c r="D159" t="s">
+        <v>317</v>
+      </c>
+      <c r="G159" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" t="s">
+        <v>303</v>
+      </c>
+      <c r="D160" t="s">
+        <v>317</v>
+      </c>
+      <c r="G160" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" t="s">
+        <v>304</v>
+      </c>
+      <c r="D161" t="s">
+        <v>317</v>
+      </c>
+      <c r="G161" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" t="s">
+        <v>305</v>
+      </c>
+      <c r="D162" t="s">
+        <v>316</v>
+      </c>
+      <c r="G162" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" t="s">
+        <v>306</v>
+      </c>
+      <c r="D163" t="s">
+        <v>316</v>
+      </c>
+      <c r="G163" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>301</v>
+      </c>
+      <c r="C164" t="s">
+        <v>307</v>
+      </c>
+      <c r="D164" t="s">
+        <v>315</v>
+      </c>
+      <c r="G164" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" t="s">
+        <v>340</v>
+      </c>
+      <c r="G166" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" t="s">
+        <v>345</v>
+      </c>
+      <c r="G170" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" t="s">
+        <v>346</v>
+      </c>
+      <c r="G171" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" t="s">
+        <v>347</v>
+      </c>
+      <c r="G172" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
+        <v>360</v>
+      </c>
+      <c r="C174" t="s">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>